--- a/Data/ReferenceCase/ExistingStorage.xlsx
+++ b/Data/ReferenceCase/ExistingStorage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee65a08843967445/Desktop/Master Ordner Konsti/03_Studium/Master/Sustainable Energy - Energy Systems Analysis/Masterarbeit/MasterThesis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee65a08843967445/Desktop/Master Ordner Konsti/03_Studium/Master/Sustainable Energy - Energy Systems Analysis/Masterarbeit/MasterThesis/Data/ReferenceCase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{C07896D1-B9AB-4068-9B8D-9D791C0809D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D70E454-AB36-45E8-B534-CDFD8027982B}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{C07896D1-B9AB-4068-9B8D-9D791C0809D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B52CC1F-6DA8-42A3-89DC-E38D73C9FF9D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{706CCCE1-668A-42AD-A820-FAE74361E941}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,7 +444,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
